--- a/Output.xlsx
+++ b/Output.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2603" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2603" uniqueCount="99">
   <si>
     <t>COURSE NAME</t>
   </si>
@@ -49,37 +49,37 @@
     <t>English</t>
   </si>
   <si>
-    <t>1171</t>
+    <t>1176</t>
   </si>
   <si>
     <t>Spanish</t>
   </si>
   <si>
-    <t>477</t>
+    <t>476</t>
   </si>
   <si>
     <t>Russian</t>
   </si>
   <si>
-    <t>417</t>
+    <t>418</t>
   </si>
   <si>
     <t>French</t>
   </si>
   <si>
-    <t>389</t>
+    <t>387</t>
   </si>
   <si>
     <t>Portuguese</t>
   </si>
   <si>
-    <t>292</t>
+    <t>291</t>
   </si>
   <si>
     <t>Arabic</t>
   </si>
   <si>
-    <t>151</t>
+    <t>149</t>
   </si>
   <si>
     <t>Chinese (China)</t>
@@ -91,13 +91,13 @@
     <t>Korean</t>
   </si>
   <si>
-    <t>109</t>
+    <t>105</t>
   </si>
   <si>
     <t>Vietnamese</t>
   </si>
   <si>
-    <t>85</t>
+    <t>84</t>
   </si>
   <si>
     <t>German</t>
@@ -109,123 +109,120 @@
     <t>Portuguese (Brazil)</t>
   </si>
   <si>
-    <t>77</t>
+    <t>78</t>
   </si>
   <si>
     <t>Japanese</t>
   </si>
   <si>
-    <t>69</t>
+    <t>67</t>
   </si>
   <si>
     <t>Turkish</t>
   </si>
   <si>
-    <t>45</t>
+    <t>43</t>
   </si>
   <si>
     <t>Chinese (Traditional)</t>
   </si>
   <si>
-    <t>31</t>
+    <t>33</t>
   </si>
   <si>
     <t>Persian</t>
   </si>
   <si>
+    <t>30</t>
+  </si>
+  <si>
     <t>Greek</t>
   </si>
   <si>
-    <t>24</t>
+    <t>23</t>
   </si>
   <si>
     <t>Ukrainian</t>
   </si>
   <si>
-    <t>22</t>
-  </si>
-  <si>
     <t>Hindi</t>
   </si>
   <si>
-    <t>20</t>
+    <t>19</t>
   </si>
   <si>
     <t>Italian</t>
   </si>
   <si>
-    <t>16</t>
+    <t>15</t>
   </si>
   <si>
     <t>Romanian</t>
   </si>
   <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>Catalan</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
     <t>Hebrew</t>
   </si>
   <si>
-    <t>13</t>
-  </si>
-  <si>
     <t>Dutch</t>
   </si>
   <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>Catalan</t>
-  </si>
-  <si>
-    <t>11</t>
+    <t>10</t>
   </si>
   <si>
     <t>Thai</t>
   </si>
   <si>
-    <t>10</t>
+    <t>Indonesian</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>Mongolian</t>
+  </si>
+  <si>
+    <t>7</t>
   </si>
   <si>
     <t>Polish</t>
   </si>
   <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>Indonesian</t>
-  </si>
-  <si>
-    <t>7</t>
+    <t>Portuguese (Portugal)</t>
   </si>
   <si>
     <t>Serbian</t>
   </si>
   <si>
-    <t>Mongolian</t>
+    <t>Tamil</t>
   </si>
   <si>
     <t>6</t>
   </si>
   <si>
-    <t>Portuguese (Portugal)</t>
-  </si>
-  <si>
-    <t>Tamil</t>
+    <t>Slovak</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>Czech</t>
+  </si>
+  <si>
+    <t>4</t>
   </si>
   <si>
     <t>Hungarian</t>
   </si>
   <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>Slovak</t>
-  </si>
-  <si>
-    <t>Czech</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
     <t>Telugu</t>
   </si>
   <si>
@@ -235,6 +232,9 @@
     <t>3</t>
   </si>
   <si>
+    <t>Lithuanian</t>
+  </si>
+  <si>
     <t>Urdu</t>
   </si>
   <si>
@@ -262,9 +262,6 @@
     <t>Kazakh</t>
   </si>
   <si>
-    <t>Lithuanian</t>
-  </si>
-  <si>
     <t>Uzbek</t>
   </si>
   <si>
@@ -283,7 +280,7 @@
     <t>TOTAL COURSES</t>
   </si>
   <si>
-    <t>3797</t>
+    <t>3786</t>
   </si>
   <si>
     <t>LEVEL NAME</t>
@@ -295,28 +292,25 @@
     <t>Intermediate</t>
   </si>
   <si>
-    <t>520</t>
+    <t>519</t>
   </si>
   <si>
     <t>Beginner</t>
   </si>
   <si>
-    <t>466</t>
+    <t>478</t>
   </si>
   <si>
     <t>Mixed</t>
   </si>
   <si>
-    <t>235</t>
+    <t>233</t>
   </si>
   <si>
     <t>Advanced</t>
   </si>
   <si>
-    <t>78</t>
-  </si>
-  <si>
-    <t>1299</t>
+    <t>1308</t>
   </si>
 </sst>
 </file>
@@ -547,23 +541,23 @@
         <v>38</v>
       </c>
       <c r="B16" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B17" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
+        <v>42</v>
+      </c>
+      <c r="B18" t="s">
         <v>41</v>
-      </c>
-      <c r="B18" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="19">
@@ -587,23 +581,23 @@
         <v>47</v>
       </c>
       <c r="B21" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B22" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
+        <v>51</v>
+      </c>
+      <c r="B23" t="s">
         <v>50</v>
-      </c>
-      <c r="B23" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="24">
@@ -619,71 +613,71 @@
         <v>54</v>
       </c>
       <c r="B25" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
+        <v>55</v>
+      </c>
+      <c r="B26" t="s">
         <v>56</v>
-      </c>
-      <c r="B26" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
+        <v>57</v>
+      </c>
+      <c r="B27" t="s">
         <v>58</v>
-      </c>
-      <c r="B27" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B28" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B29" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B30" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B31" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
+        <v>64</v>
+      </c>
+      <c r="B32" t="s">
         <v>65</v>
-      </c>
-      <c r="B32" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
+        <v>66</v>
+      </c>
+      <c r="B33" t="s">
         <v>67</v>
-      </c>
-      <c r="B33" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="34">
@@ -691,44 +685,44 @@
         <v>68</v>
       </c>
       <c r="B34" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B35" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
+        <v>70</v>
+      </c>
+      <c r="B36" t="s">
         <v>71</v>
-      </c>
-      <c r="B36" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B37" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B38" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B39" t="s">
         <v>75</v>
@@ -736,7 +730,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B40" t="s">
         <v>75</v>
@@ -744,7 +738,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B41" t="s">
         <v>75</v>
@@ -752,7 +746,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B42" t="s">
         <v>75</v>
@@ -760,7 +754,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B43" t="s">
         <v>75</v>
@@ -768,7 +762,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B44" t="s">
         <v>75</v>
@@ -776,7 +770,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B45" t="s">
         <v>75</v>
@@ -784,7 +778,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B46" t="s">
         <v>75</v>
@@ -792,34 +786,34 @@
     </row>
     <row r="47">
       <c r="A47" t="s">
+        <v>83</v>
+      </c>
+      <c r="B47" t="s">
         <v>84</v>
-      </c>
-      <c r="B47" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B48" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B49" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
+        <v>87</v>
+      </c>
+      <c r="B50" t="s">
         <v>88</v>
-      </c>
-      <c r="B50" t="s">
-        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -841,50 +835,50 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1" t="s">
         <v>90</v>
-      </c>
-      <c r="B1" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B2" t="s">
         <v>92</v>
-      </c>
-      <c r="B2" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B3" t="s">
         <v>94</v>
-      </c>
-      <c r="B3" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B4" t="s">
         <v>96</v>
-      </c>
-      <c r="B4" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B5" t="s">
-        <v>99</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B6" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>
